--- a/DatosSimulaciones.xlsx
+++ b/DatosSimulaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/059edbd25c944da1/Escritorio/NAND-MagicVLSI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{A8EFD8D0-C907-4E03-B3B2-3B3E3A63884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86D2C14-CD2C-4A11-8E5A-270090A5CD39}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{A8EFD8D0-C907-4E03-B3B2-3B3E3A63884B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAA0F9FC-CB14-49E5-BB94-C5E975F59444}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B6934481-3673-4CEB-8CA5-FA21040DB6A0}"/>
   </bookViews>
@@ -99,12 +99,24 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -139,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,6 +167,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -172,6 +203,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFF5558-8B5D-4B50-ACEA-8BCDFEACDFB8}">
-  <dimension ref="D4:H13"/>
+  <dimension ref="D4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -480,11 +515,13 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +530,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="4:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
@@ -510,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
@@ -528,35 +565,36 @@
         <v>6.3507999999999996</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>10.051299999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="8">
         <v>10.3675</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="8">
         <f t="shared" ref="G7:G13" si="0">F7-E7</f>
         <v>0.31620000000000026</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="8">
         <v>3.6139999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>10.053800000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="11">
         <v>10.354799999999999</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>0.30099999999999838</v>
       </c>
@@ -564,7 +602,7 @@
         <v>7.2629999999999999</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
@@ -582,25 +620,25 @@
         <v>7.2982500000000003</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="13">
         <v>10.057700000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="13">
         <v>11.4231</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>1.3653999999999993</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="13">
         <v>4.3179999999999996</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +656,7 @@
         <v>7.5439999999999996</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
@@ -636,7 +674,7 @@
         <v>13.125</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
